--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl4-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl4-Ccr3.xlsx
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.08097766666666667</v>
+        <v>0.7454756666666666</v>
       </c>
       <c r="H2">
-        <v>0.242933</v>
+        <v>2.236427</v>
       </c>
       <c r="I2">
-        <v>0.0005396628443312377</v>
+        <v>0.004237455828433692</v>
       </c>
       <c r="J2">
-        <v>0.0005403049696870037</v>
+        <v>0.004251944035061194</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N2">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O2">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P2">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q2">
-        <v>0.01072036336444444</v>
+        <v>0.1025540934957778</v>
       </c>
       <c r="R2">
-        <v>0.09648327027999999</v>
+        <v>0.9229868414620001</v>
       </c>
       <c r="S2">
-        <v>0.0001606706026779829</v>
+        <v>0.001227409900231859</v>
       </c>
       <c r="T2">
-        <v>0.0001608617788335946</v>
+        <v>0.001231606514655985</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.08097766666666667</v>
+        <v>0.7454756666666666</v>
       </c>
       <c r="H3">
-        <v>0.242933</v>
+        <v>2.236427</v>
       </c>
       <c r="I3">
-        <v>0.0005396628443312377</v>
+        <v>0.004237455828433692</v>
       </c>
       <c r="J3">
-        <v>0.0005403049696870037</v>
+        <v>0.004251944035061194</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N3">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O3">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P3">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q3">
-        <v>0.02528735484344445</v>
+        <v>0.2514991377282222</v>
       </c>
       <c r="R3">
-        <v>0.227586193591</v>
+        <v>2.263492239554</v>
       </c>
       <c r="S3">
-        <v>0.0003789922416532548</v>
+        <v>0.003010045928201832</v>
       </c>
       <c r="T3">
-        <v>0.000379443190853409</v>
+        <v>0.003020337520405209</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>71.97958300000001</v>
+        <v>102.35201</v>
       </c>
       <c r="H4">
-        <v>215.938749</v>
+        <v>307.05603</v>
       </c>
       <c r="I4">
-        <v>0.4796965397318159</v>
+        <v>0.5817924591230612</v>
       </c>
       <c r="J4">
-        <v>0.4802673133443974</v>
+        <v>0.583781654929077</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N4">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O4">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P4">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q4">
-        <v>9.529137061426667</v>
+        <v>14.08042954635333</v>
       </c>
       <c r="R4">
-        <v>85.76223355283999</v>
+        <v>126.72386591718</v>
       </c>
       <c r="S4">
-        <v>0.1428171921614588</v>
+        <v>0.1685204172315443</v>
       </c>
       <c r="T4">
-        <v>0.1429871251877723</v>
+        <v>0.1690966022644171</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>71.97958300000001</v>
+        <v>102.35201</v>
       </c>
       <c r="H5">
-        <v>215.938749</v>
+        <v>307.05603</v>
       </c>
       <c r="I5">
-        <v>0.4796965397318159</v>
+        <v>0.5817924591230612</v>
       </c>
       <c r="J5">
-        <v>0.4802673133443974</v>
+        <v>0.583781654929077</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N5">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O5">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P5">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q5">
-        <v>22.47747226771367</v>
+        <v>34.53022467500666</v>
       </c>
       <c r="R5">
-        <v>202.297250409423</v>
+        <v>310.77202207506</v>
       </c>
       <c r="S5">
-        <v>0.3368793475703571</v>
+        <v>0.413272041891517</v>
       </c>
       <c r="T5">
-        <v>0.337280188156625</v>
+        <v>0.4146850526646599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.534989</v>
+        <v>1.79836</v>
       </c>
       <c r="H6">
-        <v>1.069978</v>
+        <v>3.59672</v>
       </c>
       <c r="I6">
-        <v>0.003565349525497869</v>
+        <v>0.01022229350247785</v>
       </c>
       <c r="J6">
-        <v>0.002379727870876994</v>
+        <v>0.006838162904394061</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N6">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O6">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P6">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q6">
-        <v>0.07082541041333333</v>
+        <v>0.2473979873866667</v>
       </c>
       <c r="R6">
-        <v>0.42495246248</v>
+        <v>1.48438792432</v>
       </c>
       <c r="S6">
-        <v>0.001061490267556381</v>
+        <v>0.002960961660963179</v>
       </c>
       <c r="T6">
-        <v>0.0007085021976957098</v>
+        <v>0.00198072362003923</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.534989</v>
+        <v>1.79836</v>
       </c>
       <c r="H7">
-        <v>1.069978</v>
+        <v>3.59672</v>
       </c>
       <c r="I7">
-        <v>0.003565349525497869</v>
+        <v>0.01022229350247785</v>
       </c>
       <c r="J7">
-        <v>0.002379727870876994</v>
+        <v>0.006838162904394061</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N7">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O7">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P7">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q7">
-        <v>0.1670640466343334</v>
+        <v>0.6067079175733333</v>
       </c>
       <c r="R7">
-        <v>1.002384279806</v>
+        <v>3.64024750544</v>
       </c>
       <c r="S7">
-        <v>0.002503859257941488</v>
+        <v>0.007261331841514676</v>
       </c>
       <c r="T7">
-        <v>0.001671225673181284</v>
+        <v>0.004857439284354831</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>77.45677933333333</v>
+        <v>71.02944933333333</v>
       </c>
       <c r="H8">
-        <v>232.370338</v>
+        <v>213.088348</v>
       </c>
       <c r="I8">
-        <v>0.5161984478983551</v>
+        <v>0.4037477915460271</v>
       </c>
       <c r="J8">
-        <v>0.5168126538150387</v>
+        <v>0.4051282381314676</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1323866666666667</v>
+        <v>0.1375686666666667</v>
       </c>
       <c r="N8">
-        <v>0.39716</v>
+        <v>0.412706</v>
       </c>
       <c r="O8">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="P8">
-        <v>0.2977240407890032</v>
+        <v>0.2896572731203081</v>
       </c>
       <c r="Q8">
-        <v>10.25424482667555</v>
+        <v>9.771426638854223</v>
       </c>
       <c r="R8">
-        <v>92.28820344008</v>
+        <v>87.94283974968801</v>
       </c>
       <c r="S8">
-        <v>0.15368468775731</v>
+        <v>0.1169484843275688</v>
       </c>
       <c r="T8">
-        <v>0.1538675516247016</v>
+        <v>0.1173483407211958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>77.45677933333333</v>
+        <v>71.02944933333333</v>
       </c>
       <c r="H9">
-        <v>232.370338</v>
+        <v>213.088348</v>
       </c>
       <c r="I9">
-        <v>0.5161984478983551</v>
+        <v>0.4037477915460271</v>
       </c>
       <c r="J9">
-        <v>0.5168126538150387</v>
+        <v>0.4051282381314676</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3122756666666667</v>
+        <v>0.3373673333333334</v>
       </c>
       <c r="N9">
-        <v>0.936827</v>
+        <v>1.012102</v>
       </c>
       <c r="O9">
-        <v>0.7022759592109968</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="P9">
-        <v>0.7022759592109967</v>
+        <v>0.7103427268796919</v>
       </c>
       <c r="Q9">
-        <v>24.18786740416956</v>
+        <v>23.96301590972178</v>
       </c>
       <c r="R9">
-        <v>217.690806637526</v>
+        <v>215.667143187496</v>
       </c>
       <c r="S9">
-        <v>0.3625137601410451</v>
+        <v>0.2867993072184583</v>
       </c>
       <c r="T9">
-        <v>0.3629451021903371</v>
+        <v>0.2877798974102719</v>
       </c>
     </row>
   </sheetData>
